--- a/torg/checklist.xlsx
+++ b/torg/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/torg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6E499BB-1CEB-E84E-AF9E-EB57D7CA4812}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF474D2-9C20-6648-82DD-8BE66CD4F2EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{A9501E32-F566-704B-8423-9AA489C2115A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>year</t>
   </si>
@@ -123,6 +123,27 @@
   </si>
   <si>
     <t>Orrosh: Torg Sourcebook</t>
+  </si>
+  <si>
+    <t>torg7.jpg</t>
+  </si>
+  <si>
+    <t>torg8.jpg</t>
+  </si>
+  <si>
+    <t>力の遺品―トーグ・シナリオブック</t>
+  </si>
+  <si>
+    <t>The Relics of Power: Torg Scenario Book</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>トーグガイドブック</t>
+  </si>
+  <si>
+    <t>Torg Guidebook</t>
   </si>
 </sst>
 </file>
@@ -483,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C8F241-CF2C-7540-905E-518DAE321684}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -656,6 +677,46 @@
         <v>16</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1994</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1994</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/torg/checklist.xlsx
+++ b/torg/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/torg/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/torg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF474D2-9C20-6648-82DD-8BE66CD4F2EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80CF981-0B26-F04F-B5C9-7502B8B8DEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{A9501E32-F566-704B-8423-9AA489C2115A}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="15780" xr2:uid="{A9501E32-F566-704B-8423-9AA489C2115A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,9 +128,6 @@
     <t>torg7.jpg</t>
   </si>
   <si>
-    <t>torg8.jpg</t>
-  </si>
-  <si>
     <t>力の遺品―トーグ・シナリオブック</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>Torg Guidebook</t>
+  </si>
+  <si>
+    <t>torg8.png</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,10 +682,10 @@
         <v>1994</v>
       </c>
       <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
         <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -694,7 +694,7 @@
         <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -702,16 +702,16 @@
         <v>1994</v>
       </c>
       <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
         <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
